--- a/Datasets/vjcortesa_Risk_Perceptiondataset_240924.xlsx
+++ b/Datasets/vjcortesa_Risk_Perceptiondataset_240924.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W79"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,6 +480,16 @@
           <t>Q_Threatcode</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibility</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q_Responsibilitycode</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -593,6 +603,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -706,6 +726,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -819,6 +849,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -932,6 +972,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -1045,6 +1095,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1158,6 +1218,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1271,6 +1341,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1384,6 +1464,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1497,6 +1587,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1610,6 +1710,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1723,6 +1833,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1836,6 +1956,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1949,6 +2079,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -2062,6 +2202,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -2175,6 +2325,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2288,6 +2448,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2401,6 +2571,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2514,6 +2694,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -2627,6 +2817,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -2740,6 +2940,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2853,6 +3063,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -2966,6 +3186,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -3079,6 +3309,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -3192,6 +3432,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -3305,6 +3555,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -3418,6 +3678,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -3531,6 +3801,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -3644,6 +3924,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -3757,6 +4047,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -3870,6 +4170,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -3983,6 +4293,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -4096,6 +4416,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -4209,6 +4539,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -4322,6 +4662,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -4435,6 +4785,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -4548,6 +4908,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -4661,6 +5031,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -4774,6 +5154,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -4887,6 +5277,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -5000,6 +5400,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -5113,6 +5523,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -5226,6 +5646,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -5339,6 +5769,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -5452,6 +5892,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -5565,6 +6015,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -5678,6 +6138,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -5791,6 +6261,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -5904,6 +6384,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -6017,6 +6507,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -6130,6 +6630,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -6243,6 +6753,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -6356,6 +6876,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -6469,6 +6999,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -6582,6 +7122,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -6695,6 +7245,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -6808,6 +7368,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -6921,6 +7491,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -7034,6 +7614,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -7147,6 +7737,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -7260,6 +7860,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -7373,6 +7983,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -7486,6 +8106,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -7599,6 +8229,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -7712,6 +8352,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -7825,6 +8475,16 @@
           <t>5</t>
         </is>
       </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -7938,6 +8598,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -8051,6 +8721,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -8164,6 +8844,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -8277,6 +8967,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -8390,6 +9090,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -8503,6 +9213,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -8616,6 +9336,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Public authorities and citizens are equally responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -8729,6 +9459,16 @@
           <t>2</t>
         </is>
       </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -8842,6 +9582,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Public authorities are completely responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -8955,6 +9705,16 @@
           <t>3</t>
         </is>
       </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -9068,6 +9828,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -9181,6 +9951,16 @@
           <t>4</t>
         </is>
       </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -9292,6 +10072,16 @@
       <c r="W79" t="inlineStr">
         <is>
           <t>4</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Public authorities are responsible and citizens somewhat responsible for flood protection</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
